--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2095585.196673776</v>
+        <v>2171114.866338581</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>306.240361933291</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>1.678593880211542</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>20.16013205738677</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>83.33705942123233</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.072351289800431</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>122.3991365428352</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1609600883621</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>86.54610229439197</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>150.8400357509148</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>112.2008592180674</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>169.4196532835179</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>33.32815808118186</v>
+        <v>54.97117385624344</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>24.34682769251196</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>148.7161203484789</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>62.56378259042211</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>80.00737285365452</v>
+        <v>118.4898845065117</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T25" t="n">
-        <v>157.2425576766694</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>164.7698472938798</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>14.73664328357051</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V31" t="n">
-        <v>75.87801955598087</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>67.20739854797434</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>24.30197918502513</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18.89390621047084</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>190.6405752120378</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>208.8943726614626</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>112.1509149027625</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2090.781606227855</v>
+        <v>1139.506187451444</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>1139.506187451444</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>781.2404888446938</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>781.2404888446938</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2464.247364488935</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>2090.781606227855</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y2" t="n">
-        <v>2090.781606227855</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223454</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>1293.161685715201</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>934.895987108451</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>549.1077345102067</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>138.1218297205991</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2691.015402846707</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2691.015402846707</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2472.38073581877</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2472.38073581877</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2472.38073581877</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2119.612080548655</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1746.146322287575</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y5" t="n">
-        <v>1746.146322287575</v>
+        <v>1662.124202655613</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>223.2349977106394</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>223.2349977106394</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>223.2349977106394</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>223.2349977106394</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>223.2349977106394</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>223.2349977106394</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>259.1560728187101</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>223.2349977106394</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.48086314784</v>
+        <v>1744.232431292459</v>
       </c>
       <c r="C8" t="n">
-        <v>1146.060557799969</v>
+        <v>1375.269914352047</v>
       </c>
       <c r="D8" t="n">
-        <v>787.7948591932184</v>
+        <v>1017.004215745297</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>631.2159631470527</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>220.2300583574451</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>206.306654296036</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>206.306654296036</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.546461473041</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.546461473041</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.080703211961</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.080703211961</v>
+        <v>2130.832271356581</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.5811021474123</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C10" t="n">
-        <v>527.5811021474123</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>527.5811021474123</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>527.5811021474123</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T10" t="n">
-        <v>527.5811021474123</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U10" t="n">
-        <v>527.5811021474123</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V10" t="n">
-        <v>527.5811021474123</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W10" t="n">
-        <v>527.5811021474123</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X10" t="n">
-        <v>527.5811021474123</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y10" t="n">
-        <v>527.5811021474123</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,22 +5053,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>467.9934022109801</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="C13" t="n">
-        <v>299.0572192830732</v>
+        <v>152.7435296989156</v>
       </c>
       <c r="D13" t="n">
-        <v>299.0572192830732</v>
+        <v>152.7435296989156</v>
       </c>
       <c r="E13" t="n">
-        <v>299.0572192830732</v>
+        <v>152.7435296989156</v>
       </c>
       <c r="F13" t="n">
-        <v>299.0572192830732</v>
+        <v>152.7435296989156</v>
       </c>
       <c r="G13" t="n">
-        <v>130.8818976028938</v>
+        <v>152.7435296989156</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>1098.423997082767</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X13" t="n">
-        <v>870.43444618475</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y13" t="n">
-        <v>649.6418670412198</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,37 +5269,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5309,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.2468244550147</v>
+        <v>868.4856756861151</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>699.5494927582082</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>549.4328533458724</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634793</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634793</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>233.3444380832999</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5464,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1348.697967175601</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1059.569328389159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>804.8848401832718</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>804.8848401832718</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>576.8952892852544</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y16" t="n">
-        <v>576.8952892852544</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5507,25 +5509,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1435.720530567577</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1211.935115357083</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1211.935115357083</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>957.2506271511957</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="20">
@@ -5744,19 +5746,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>3446.276123502708</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>3776.138751166741</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>4445.6025124694</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4186.289902337209</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>4186.289902337209</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4668.963941441113</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T22" t="n">
-        <v>4668.963941441113</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>4668.963941441113</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>4414.279453235226</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>4414.279453235226</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>4186.289902337209</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>4186.289902337209</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4741.167820987513</v>
       </c>
       <c r="T25" t="n">
-        <v>1340.085404217832</v>
+        <v>4741.167820987513</v>
       </c>
       <c r="U25" t="n">
-        <v>1050.956765431391</v>
+        <v>4452.039182201071</v>
       </c>
       <c r="V25" t="n">
-        <v>796.2722772255036</v>
+        <v>4197.354693995184</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>3907.937523958223</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>3679.947973060206</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6205,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,25 +6247,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6300,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564.1830073829216</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1021.486967849543</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>732.358329063101</v>
       </c>
       <c r="V28" t="n">
-        <v>1484.03077229167</v>
+        <v>732.358329063101</v>
       </c>
       <c r="W28" t="n">
-        <v>1194.613602254709</v>
+        <v>732.358329063101</v>
       </c>
       <c r="X28" t="n">
-        <v>966.6240513566914</v>
+        <v>732.358329063101</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.8314722131613</v>
+        <v>732.358329063101</v>
       </c>
     </row>
     <row r="29">
@@ -6440,46 +6442,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>898.7925182488384</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V31" t="n">
-        <v>822.1480540508779</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W31" t="n">
-        <v>822.1480540508779</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X31" t="n">
-        <v>822.1480540508779</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>822.1480540508779</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6679,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4144.425579450937</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>3975.48939652303</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>3825.372757110695</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>3677.459663528301</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>3677.459663528301</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3677.459663528301</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3527.041655076245</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1474.368816835655</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1474.368816835655</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>1474.368816835655</v>
       </c>
       <c r="U34" t="n">
-        <v>4326.074044281177</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="V34" t="n">
-        <v>4326.074044281177</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W34" t="n">
-        <v>4326.074044281177</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X34" t="n">
-        <v>4326.074044281177</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y34" t="n">
-        <v>4326.074044281177</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>592.8217113586352</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1016.813592216476</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1346.676219880508</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4352.721170395453</v>
+        <v>3607.06848749907</v>
       </c>
       <c r="C37" t="n">
-        <v>4183.784987467546</v>
+        <v>3607.06848749907</v>
       </c>
       <c r="D37" t="n">
-        <v>4033.66834805521</v>
+        <v>3607.06848749907</v>
       </c>
       <c r="E37" t="n">
-        <v>3885.755254472817</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F37" t="n">
-        <v>3738.865306974907</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T37" t="n">
-        <v>4660.934562929845</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U37" t="n">
-        <v>4371.805924143403</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="V37" t="n">
-        <v>4371.805924143403</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W37" t="n">
-        <v>4371.805924143403</v>
+        <v>4027.624275985004</v>
       </c>
       <c r="X37" t="n">
-        <v>4371.805924143403</v>
+        <v>3799.634725086987</v>
       </c>
       <c r="Y37" t="n">
-        <v>4371.805924143403</v>
+        <v>3607.06848749907</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7184,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
@@ -7257,16 +7259,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977054</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1287.911853728142</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1287.911853728142</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1033.227365522255</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1033.227365522255</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>805.237814624238</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>584.4452354807079</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,43 +7399,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7494,16 +7496,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775516</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>379.4370268152256</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>210.5008438873187</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>210.5008438873187</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>210.5008438873187</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>210.5008438873187</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>781.8780707889955</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>561.0854916454654</v>
       </c>
     </row>
     <row r="44">
@@ -7640,13 +7642,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7722,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7731,19 +7733,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.269243651622</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>182.0340742867953</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,22 +9488,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>176.7176547498451</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>182.0340742867951</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>176.7176547498451</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,25 +10907,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,10 +11144,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978208</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,10 +11381,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>115.5856702863543</v>
+        <v>93.94265451129269</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>124.5670006750242</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23706,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>72.8314407099104</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>135.3570273931811</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>117.9134371299487</v>
+        <v>79.43092547709159</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24412,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T25" t="n">
-        <v>64.30500338171987</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>56.77771376450946</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>237.4010000402575</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V31" t="n">
-        <v>176.2596237678471</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>43.21184691629765</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>85.66237321876767</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>160.9380739714665</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>27.94407814005703</v>
       </c>
     </row>
     <row r="38">
@@ -25549,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>12.65318839692665</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>54.34265356061506</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25834,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26071,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.715276347</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856805.715276347</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.715276347</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.715276347</v>
       </c>
     </row>
     <row r="15">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049992</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
       <c r="G2" t="n">
         <v>547440.6836327921</v>
@@ -26335,25 +26337,25 @@
         <v>547440.6836327923</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="L2" t="n">
         <v>547440.6836327923</v>
       </c>
       <c r="M2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="N2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="N2" t="n">
-        <v>547440.6836327921</v>
-      </c>
       <c r="O2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327923</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="O4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="P4" t="n">
         <v>36432.48351773394</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773395</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281446.4052300829</v>
+        <v>-281446.405230083</v>
       </c>
       <c r="C6" t="n">
-        <v>308521.4739844614</v>
+        <v>308521.4739844617</v>
       </c>
       <c r="D6" t="n">
-        <v>308521.4739844612</v>
+        <v>308521.4739844615</v>
       </c>
       <c r="E6" t="n">
-        <v>-106139.1623105543</v>
+        <v>-106139.1623105545</v>
       </c>
       <c r="F6" t="n">
-        <v>419020.8741663416</v>
+        <v>419020.8741663414</v>
       </c>
       <c r="G6" t="n">
         <v>419020.8741663415</v>
@@ -26543,25 +26545,25 @@
         <v>419020.8741663417</v>
       </c>
       <c r="J6" t="n">
-        <v>242597.6549737489</v>
+        <v>242597.6549737486</v>
       </c>
       <c r="K6" t="n">
+        <v>419020.874166342</v>
+      </c>
+      <c r="L6" t="n">
+        <v>419020.8741663418</v>
+      </c>
+      <c r="M6" t="n">
+        <v>284219.8589325042</v>
+      </c>
+      <c r="N6" t="n">
         <v>419020.8741663416</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
+        <v>419020.8741663414</v>
+      </c>
+      <c r="P6" t="n">
         <v>419020.8741663417</v>
-      </c>
-      <c r="M6" t="n">
-        <v>284219.8589325045</v>
-      </c>
-      <c r="N6" t="n">
-        <v>419020.8741663415</v>
-      </c>
-      <c r="O6" t="n">
-        <v>419020.8741663415</v>
-      </c>
-      <c r="P6" t="n">
-        <v>419020.8741663414</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100.6356838084204</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>347.5623748372014</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>204.8749734006975</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>330.4471105995627</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>48.40605128501129</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27789,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>33.77175229895994</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.36203824822886</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>278.7267894766156</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>1.091280493946414</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>55.04596188056048</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>55.61545217456637</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31516,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32640,10 +32642,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.005506727916</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>515.228647684808</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
@@ -36206,19 +36208,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541607</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>487.1420318003114</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>332.6095128747343</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>487.1420318003114</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058697</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>334.8610358541607</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958064</v>
+        <v>425.9753597058697</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2171114.866338581</v>
+        <v>2164097.85144687</v>
       </c>
     </row>
     <row r="7">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>306.240361933291</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>143.547761710494</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>20.16013205738677</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>200.2931783177765</v>
       </c>
       <c r="G5" t="n">
-        <v>83.33705942123233</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>122.3991365428352</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>150.8400357509148</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>1.332975795529715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>112.2008592180674</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.52687838733162</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>54.97117385624344</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>169.1535501543549</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>24.34682769251196</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>62.56378259042211</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>118.4898845065117</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>118.4898845065119</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396425115</v>
       </c>
       <c r="T28" t="n">
-        <v>164.7698472938798</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.30197918502513</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>73.6025219366589</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>190.6405752120378</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.6405752120378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>208.8943726614626</v>
+        <v>146.278729911946</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>112.1509149027625</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>169.1477376595839</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U46" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1139.506187451444</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C2" t="n">
-        <v>1139.506187451444</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>781.2404888446938</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>781.2404888446938</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2552.151351916713</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2333.516684888776</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2079.754899526868</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1748.692012183297</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1395.923356913183</v>
       </c>
       <c r="X2" t="n">
-        <v>1916.245359491378</v>
+        <v>1022.457598652103</v>
       </c>
       <c r="Y2" t="n">
-        <v>1526.106027515566</v>
+        <v>632.3182666762914</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="T4" t="n">
-        <v>493.4767912696608</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="U4" t="n">
-        <v>493.4767912696608</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="V4" t="n">
-        <v>493.4767912696608</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="W4" t="n">
-        <v>204.0596212327002</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>709.5665374816297</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.124202655613</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="C5" t="n">
-        <v>1293.161685715201</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="D5" t="n">
-        <v>934.895987108451</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="E5" t="n">
-        <v>549.1077345102067</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="F5" t="n">
-        <v>138.1218297205991</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4573,46 +4573,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.124202655613</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.124202655613</v>
+        <v>1154.883827626213</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>223.2349977106394</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>223.2349977106394</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>223.2349977106394</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>223.2349977106394</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>223.2349977106394</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>223.2349977106394</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>223.2349977106394</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1744.232431292459</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C8" t="n">
-        <v>1375.269914352047</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>1017.004215745297</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>631.2159631470527</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>220.2300583574451</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>206.306654296036</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>206.306654296036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="X8" t="n">
-        <v>2520.971603332393</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="Y8" t="n">
-        <v>2130.832271356581</v>
+        <v>2305.663318844906</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5032,22 +5032,22 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>321.6797126268225</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C13" t="n">
-        <v>152.7435296989156</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>152.7435296989156</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>152.7435296989156</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>152.7435296989156</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>152.7435296989156</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>731.3177283550796</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>503.3281774570622</v>
+        <v>783.952440441969</v>
       </c>
       <c r="Y13" t="n">
-        <v>503.3281774570622</v>
+        <v>563.1598612984388</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5269,46 +5269,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.3578574653</v>
@@ -5320,7 +5320,7 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,13 +5357,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643586</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.4856756861151</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>699.5494927582082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>549.4328533458724</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>401.5197597634793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>401.5197597634793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>233.3444380832999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>1270.926719659885</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.134140516355</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5512,13 +5512,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1435.720530567577</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1211.935115357083</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1211.935115357083</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>957.2506271511957</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>667.8334571142351</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>667.8334571142351</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5749,13 +5749,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,40 +5764,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3446.276123502708</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>3776.138751166741</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4445.6025124694</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,40 +5974,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4741.167820987513</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4741.167820987513</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>4452.039182201071</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>4197.354693995184</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>3907.937523958223</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3679.947973060206</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,28 +6211,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,7 +6323,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1021.486967849543</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>732.358329063101</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>732.358329063101</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>732.358329063101</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,46 +6442,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822458</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1474.368816835655</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1474.368816835655</v>
+        <v>1424.570288803701</v>
       </c>
       <c r="T34" t="n">
-        <v>1474.368816835655</v>
+        <v>1200.784873593207</v>
       </c>
       <c r="U34" t="n">
-        <v>1185.240178049213</v>
+        <v>911.6562348067655</v>
       </c>
       <c r="V34" t="n">
-        <v>1185.240178049213</v>
+        <v>656.9717466008786</v>
       </c>
       <c r="W34" t="n">
-        <v>895.8230080122524</v>
+        <v>656.9717466008786</v>
       </c>
       <c r="X34" t="n">
-        <v>667.8334571142351</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y34" t="n">
-        <v>447.040877970705</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6931,22 +6931,22 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6958,25 +6958,25 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>592.8217113586352</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3607.06848749907</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C37" t="n">
-        <v>3607.06848749907</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D37" t="n">
-        <v>3607.06848749907</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014293</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U37" t="n">
-        <v>4571.725934227851</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V37" t="n">
-        <v>4317.041446021964</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W37" t="n">
-        <v>4027.624275985004</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X37" t="n">
-        <v>3799.634725086987</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y37" t="n">
-        <v>3607.06848749907</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,7 +7165,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7183,43 +7183,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>584.4452354807079</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028587</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1287.911853728142</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U40" t="n">
-        <v>1287.911853728142</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V40" t="n">
-        <v>1033.227365522255</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W40" t="n">
-        <v>1033.227365522255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X40" t="n">
-        <v>805.237814624238</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>584.4452354807079</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,10 +7402,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
@@ -7420,43 +7420,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>379.4370268152256</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>210.5008438873187</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>210.5008438873187</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>210.5008438873187</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>210.5008438873187</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028587</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.867621687013</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>1009.867621687013</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>781.8780707889955</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>561.0854916454654</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>182.0340742867953</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>124.3400780863232</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>182.0340742867951</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,10 +11381,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>93.94265451129269</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>56.55610523468224</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>124.5670006750242</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>135.3570273931811</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>79.43092547709159</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>192.3581855871781</v>
       </c>
       <c r="T28" t="n">
-        <v>56.77771376450946</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>85.66237321876767</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>124.3182880469443</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25365,7 +25365,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>30.90698584635149</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>27.94407814005703</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>12.65318839692665</v>
+        <v>75.26883114644326</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>54.34265356061506</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>82.98990566424408</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U46" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856805.715276347</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856805.715276347</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856805.715276347</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856805.715276347</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049992</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="F2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="I2" t="n">
         <v>547440.6836327921</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327923</v>
       </c>
       <c r="J2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.683632792</v>
       </c>
       <c r="L2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327917</v>
       </c>
       <c r="O2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327917</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773398</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773391</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773397</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773396</v>
@@ -26444,13 +26444,13 @@
         <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="N4" t="n">
         <v>36432.48351773396</v>
@@ -26459,7 +26459,7 @@
         <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,25 +26484,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281446.405230083</v>
+        <v>-281446.4052300832</v>
       </c>
       <c r="C6" t="n">
-        <v>308521.4739844617</v>
+        <v>308521.4739844613</v>
       </c>
       <c r="D6" t="n">
-        <v>308521.4739844615</v>
+        <v>308521.4739844613</v>
       </c>
       <c r="E6" t="n">
-        <v>-106139.1623105545</v>
+        <v>-107113.753570276</v>
       </c>
       <c r="F6" t="n">
-        <v>419020.8741663414</v>
+        <v>418046.2829066198</v>
       </c>
       <c r="G6" t="n">
-        <v>419020.8741663415</v>
+        <v>418046.2829066197</v>
       </c>
       <c r="H6" t="n">
-        <v>419020.8741663416</v>
+        <v>418046.2829066201</v>
       </c>
       <c r="I6" t="n">
-        <v>419020.8741663417</v>
+        <v>418046.2829066198</v>
       </c>
       <c r="J6" t="n">
-        <v>242597.6549737486</v>
+        <v>241623.063714027</v>
       </c>
       <c r="K6" t="n">
-        <v>419020.874166342</v>
+        <v>418046.2829066197</v>
       </c>
       <c r="L6" t="n">
-        <v>419020.8741663418</v>
+        <v>418046.2829066198</v>
       </c>
       <c r="M6" t="n">
-        <v>284219.8589325042</v>
+        <v>283245.2676727831</v>
       </c>
       <c r="N6" t="n">
-        <v>419020.8741663416</v>
+        <v>418046.2829066195</v>
       </c>
       <c r="O6" t="n">
-        <v>419020.8741663414</v>
+        <v>418046.2829066197</v>
       </c>
       <c r="P6" t="n">
-        <v>419020.8741663417</v>
+        <v>418046.2829066195</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26749,25 +26749,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>100.6356838084204</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>30.86795109847753</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>10.74592769735757</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>204.8749734006975</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>206.5828674239349</v>
       </c>
       <c r="G5" t="n">
-        <v>330.4471105995627</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>33.77175229895994</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.091280493946414</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>173.0827370134418</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>55.04596188056048</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>120.4387434050066</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35415,7 +35415,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>515.228647684808</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
         <v>528.689756130333</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>332.6095128747343</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>425.9753597058697</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37636,13 +37636,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>425.9753597058697</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37873,13 +37873,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38101,10 +38101,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2164097.85144687</v>
+        <v>2169037.1142959</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>143.547761710494</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>186.250717003031</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -834,13 +834,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>145.4249611444373</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.37682225755673</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>200.2931783177765</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>154.8473133620217</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>1.332975795529715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>181.1611956319094</v>
       </c>
     </row>
     <row r="9">
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>52.10844059186255</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>14.52687838733162</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>169.1535501543549</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670925</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>49.02454430863601</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>157.2425576766694</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>190.6405752120382</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>5.562624396425115</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>204.1291651532053</v>
+        <v>152.3458132526256</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>73.6025219366589</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>190.6405752120378</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3714,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>146.278729911946</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>169.1477376595839</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>187.8326399421082</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>632.3182666762914</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C2" t="n">
-        <v>632.3182666762914</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2552.151351916713</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2333.516684888776</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="U2" t="n">
-        <v>2079.754899526868</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V2" t="n">
-        <v>1748.692012183297</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W2" t="n">
-        <v>1395.923356913183</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X2" t="n">
-        <v>1022.457598652103</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y2" t="n">
-        <v>632.3182666762914</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>709.5665374816297</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>709.5665374816297</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D4" t="n">
-        <v>709.5665374816297</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>551.8221175621458</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>382.8223173004782</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>709.5665374816297</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>709.5665374816297</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>709.5665374816297</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>709.5665374816297</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>709.5665374816297</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>709.5665374816297</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>709.5665374816297</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>709.5665374816297</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>709.5665374816297</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.883827626213</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1154.883827626213</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1154.883827626213</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1154.883827626213</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4573,22 +4573,22 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157407</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887293</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626213</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626213</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1919.063478780785</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2695.802650820718</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2695.802650820718</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2695.802650820718</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2695.802650820718</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2695.802650820718</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2695.802650820718</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>2305.663318844906</v>
+        <v>2459.129294849817</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,46 +4880,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661918</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837987</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858883</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2731207858883</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5032,34 +5032,34 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5123,19 +5123,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>783.952440441969</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5257,40 +5257,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5302,28 +5302,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201016</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201016</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
@@ -5518,25 +5518,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5673,16 +5673,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,16 +5691,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
         <v>1158.436939387592</v>
@@ -5740,31 +5740,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5776,13 +5776,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1340.085404217832</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1050.956765431391</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>796.2722772255036</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W22" t="n">
-        <v>506.8551071885429</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8655562905255</v>
+        <v>781.878070788996</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>781.878070788996</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6214,25 +6214,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6241,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6469,7 +6469,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1345.031610706765</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>1117.042059808748</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>896.249480665218</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822458</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1424.570288803701</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1200.784873593207</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>911.6562348067655</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>656.9717466008786</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>656.9717466008786</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,25 +6937,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1306.350032969985</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1017.221394183544</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>762.5369059776569</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>473.1197359406963</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>245.130185042679</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>245.130185042679</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="38">
@@ -7165,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7362,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1151.239967633105</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>862.1113288466635</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>607.4268406407766</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,7 +7402,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7420,7 +7420,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619129</v>
@@ -7438,25 +7438,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7627,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515098</v>
@@ -7669,10 +7669,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>159.0121003135244</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599039</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776742</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11068,10 +11068,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>56.55610523468224</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>51.71984429841024</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>140.3375291694985</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>130.8074358733013</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,19 +24177,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>64.30500338171987</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>30.90698584635106</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>192.3581855871781</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>82.39383318338565</v>
+        <v>134.1771850839654</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>124.3182880469443</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25365,7 +25365,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>30.90698584635149</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>75.26883114644326</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>82.98990566424408</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>30.75201340998657</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="10">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="G2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="H2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="I2" t="n">
         <v>547440.6836327923</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="K2" t="n">
         <v>547440.6836327921</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.683632792</v>
       </c>
       <c r="L2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.683632792</v>
       </c>
       <c r="N2" t="n">
         <v>547440.6836327917</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327917</v>
+        <v>547440.6836327921</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.695895773285884e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.6868571279</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
-      <c r="C4" t="n">
-        <v>183348.6868571279</v>
-      </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773398</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773391</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773397</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773395</v>
@@ -26447,16 +26447,16 @@
         <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="N4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773397</v>
       </c>
       <c r="P4" t="n">
         <v>36432.48351773396</v>
@@ -26472,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281446.4052300832</v>
+        <v>-281446.4052300829</v>
       </c>
       <c r="C6" t="n">
-        <v>308521.4739844613</v>
+        <v>308521.4739844609</v>
       </c>
       <c r="D6" t="n">
         <v>308521.4739844613</v>
       </c>
       <c r="E6" t="n">
-        <v>-107113.753570276</v>
+        <v>-106236.6214365267</v>
       </c>
       <c r="F6" t="n">
-        <v>418046.2829066198</v>
+        <v>418923.415040369</v>
       </c>
       <c r="G6" t="n">
-        <v>418046.2829066197</v>
+        <v>418923.4150403692</v>
       </c>
       <c r="H6" t="n">
-        <v>418046.2829066201</v>
+        <v>418923.4150403693</v>
       </c>
       <c r="I6" t="n">
-        <v>418046.2829066198</v>
+        <v>418923.4150403696</v>
       </c>
       <c r="J6" t="n">
-        <v>241623.063714027</v>
+        <v>242500.1958477762</v>
       </c>
       <c r="K6" t="n">
-        <v>418046.2829066197</v>
+        <v>418923.4150403693</v>
       </c>
       <c r="L6" t="n">
-        <v>418046.2829066198</v>
+        <v>418923.4150403693</v>
       </c>
       <c r="M6" t="n">
-        <v>283245.2676727831</v>
+        <v>284122.399806532</v>
       </c>
       <c r="N6" t="n">
-        <v>418046.2829066195</v>
+        <v>418923.415040369</v>
       </c>
       <c r="O6" t="n">
-        <v>418046.2829066197</v>
+        <v>418923.4150403691</v>
       </c>
       <c r="P6" t="n">
-        <v>418046.2829066195</v>
+        <v>418923.4150403693</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26767,7 +26767,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>30.86795109847753</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>30.19760335462684</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>10.74592769735781</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.74592769735757</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>206.5828674239349</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>194.3936553553914</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>141.7069916148869</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>173.0827370134418</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>205.0767430241442</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>96.50703242634981</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>120.4387434050066</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
@@ -35491,22 +35491,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>598.8335596281419</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>366.105515245049</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336986</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221117</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37788,10 +37788,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
